--- a/student_ledger.xlsx
+++ b/student_ledger.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jdherr/Personal_Projects/student_grouper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B671BE-38DA-884D-BFF1-F2F82BDCF4D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15E7E6F-1719-B941-9504-9E0999C767A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="500" windowWidth="27520" windowHeight="16940" activeTab="1" xr2:uid="{45A543C8-97C0-F545-8D7A-C621361B6700}"/>
+    <workbookView xWindow="900" yWindow="500" windowWidth="27520" windowHeight="16940" activeTab="2" xr2:uid="{45A543C8-97C0-F545-8D7A-C621361B6700}"/>
   </bookViews>
   <sheets>
     <sheet name="period_1" sheetId="1" r:id="rId1"/>
     <sheet name="period_2" sheetId="2" r:id="rId2"/>
+    <sheet name="period_3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>a</t>
   </si>
@@ -440,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5907D957-C705-9149-A9EE-981D781E50D4}">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -491,6 +492,16 @@
         <v>6</v>
       </c>
     </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -500,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B37A101F-355A-D44F-B482-189D6DD7F4C6}">
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -552,4 +563,511 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{295E76C3-0322-404A-B098-8D00CDA91E3A}">
+  <dimension ref="A1:A82"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <f>A3+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <f t="shared" ref="A5:A68" si="0">A4+1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <f t="shared" ref="A69:A82" si="1">A68+1</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/student_ledger.xlsx
+++ b/student_ledger.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jdherr/Personal_Projects/student_grouper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15E7E6F-1719-B941-9504-9E0999C767A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD9FAD71-3FF1-2F41-94DF-2F30C84AE4FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="500" windowWidth="27520" windowHeight="16940" activeTab="2" xr2:uid="{45A543C8-97C0-F545-8D7A-C621361B6700}"/>
+    <workbookView xWindow="900" yWindow="500" windowWidth="27520" windowHeight="16940" xr2:uid="{45A543C8-97C0-F545-8D7A-C621361B6700}"/>
   </bookViews>
   <sheets>
-    <sheet name="period_1" sheetId="1" r:id="rId1"/>
-    <sheet name="period_2" sheetId="2" r:id="rId2"/>
-    <sheet name="period_3" sheetId="3" r:id="rId3"/>
+    <sheet name="period_2" sheetId="2" r:id="rId1"/>
+    <sheet name="period_4-5" sheetId="1" r:id="rId2"/>
+    <sheet name="period_7-8" sheetId="3" r:id="rId3"/>
+    <sheet name="period_9" sheetId="5" r:id="rId4"/>
+    <sheet name="period_10" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="17">
   <si>
     <t>a</t>
   </si>
@@ -82,6 +84,12 @@
   <si>
     <t>student_names</t>
   </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>present</t>
+  </si>
 </sst>
 </file>
 
@@ -112,7 +120,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -120,13 +128,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,67 +489,98 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5907D957-C705-9149-A9EE-981D781E50D4}">
-  <dimension ref="A1:A10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B37A101F-355A-D44F-B482-189D6DD7F4C6}">
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="D13:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="B1" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -508,57 +588,118 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B37A101F-355A-D44F-B482-189D6DD7F4C6}">
-  <dimension ref="A1:A8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5907D957-C705-9149-A9EE-981D781E50D4}">
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B10"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B1" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -567,504 +708,1287 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{295E76C3-0322-404A-B098-8D00CDA91E3A}">
-  <dimension ref="A1:A82"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="B1" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <f>A3+1</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <f t="shared" ref="A5:A68" si="0">A4+1</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="B11" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="B12" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="B13" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="B14" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="B16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="B18" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="B19" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="B20" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22">
+      <c r="B21" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="B22" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24">
+      <c r="B23" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25">
+      <c r="B24" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26">
+      <c r="B25" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27">
+      <c r="B26" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28">
+      <c r="B27" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29">
+      <c r="B28" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30">
+      <c r="B29" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31">
+      <c r="B30" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32">
+      <c r="B31" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33">
+      <c r="B32" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34">
+      <c r="B33" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35">
+      <c r="B34" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36">
+      <c r="B35" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37">
+      <c r="B36" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38">
+      <c r="B37" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39">
+      <c r="B38" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40">
+      <c r="B39" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41">
+      <c r="B40" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42">
+      <c r="B41" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43">
+      <c r="B42" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44">
+      <c r="B43" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45">
+      <c r="B44" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46">
+      <c r="B45" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <f t="shared" si="0"/>
-        <v>66</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <f t="shared" ref="A69:A82" si="1">A68+1</f>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <f t="shared" si="1"/>
-        <v>68</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <f t="shared" si="1"/>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <f t="shared" si="1"/>
-        <v>71</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <f t="shared" si="1"/>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <f t="shared" si="1"/>
-        <v>73</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <f t="shared" si="1"/>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <f t="shared" si="1"/>
-        <v>76</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <f t="shared" si="1"/>
-        <v>77</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <f t="shared" si="1"/>
-        <v>78</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <f t="shared" si="1"/>
-        <v>79</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82">
-        <f t="shared" si="1"/>
-        <v>80</v>
+      <c r="B46" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2076E90E-EBBC-8444-8BE3-85AC45FF3A51}">
+  <dimension ref="A1:B46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <f>A3+1</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <f t="shared" ref="A5:A46" si="0">A4+1</f>
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9537EF4-A6E7-E649-88C9-58EF92B3F542}">
+  <dimension ref="A1:B46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <f>A3+1</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <f t="shared" ref="A5:A46" si="0">A4+1</f>
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
